--- a/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0DCC18-1EA5-4272-B006-4F5EF9426CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C11DB96-0201-4C7D-B849-D4E669BFFA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D651800-F8B3-4CAB-AA69-96DA26F2FC90}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9677FD4E-0F0E-44F8-93CB-70BF8D1E9B97}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,241 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>9,51%</t>
@@ -98,36 +329,6 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>33,49%</t>
   </si>
   <si>
@@ -155,33 +356,6 @@
     <t>39,88%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>53,2%</t>
   </si>
   <si>
@@ -209,138 +383,114 @@
     <t>63,97%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>2,95%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
     <t>15,17%</t>
   </si>
   <si>
@@ -353,15 +503,6 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>36,64%</t>
   </si>
   <si>
@@ -392,9 +533,6 @@
     <t>60,4%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
     <t>71,83%</t>
   </si>
   <si>
@@ -416,142 +554,46 @@
     <t>65,49%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>5,36%</t>
@@ -578,27 +620,6 @@
     <t>8,65%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>31,69%</t>
   </si>
   <si>
@@ -624,27 +645,6 @@
   </si>
   <si>
     <t>36,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
   </si>
   <si>
     <t>60,68%</t>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBF68AE-DBBF-4C66-B84D-9D5571617590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F66A60-B4A7-499A-B985-282D55197B05}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1181,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9768</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1196,238 +1196,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3460</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13228</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2192</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>34398</v>
+        <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>17765</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>52164</v>
+        <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1703</v>
+        <v>595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>597</v>
+        <v>479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2300</v>
+        <v>1074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>54637</v>
+        <v>1093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>35079</v>
+        <v>1114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>89717</v>
+        <v>2208</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,108 +1436,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2228</v>
+        <v>902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>659</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
-        <v>1703</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
       <c r="N10" s="7">
-        <v>3932</v>
+        <v>1560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1546,13 +1546,13 @@
         <v>849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1576,121 +1576,121 @@
         <v>849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>12573</v>
+        <v>2228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>12377</v>
+        <v>1703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>24951</v>
+        <v>3932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>902</v>
+        <v>12573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>659</v>
+        <v>12377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>1560</v>
+        <v>24951</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>25</v>
@@ -1699,13 +1699,13 @@
         <v>25413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -1714,13 +1714,13 @@
         <v>17159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -1729,13 +1729,13 @@
         <v>42572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1750,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1765,13 +1765,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1780,18 +1780,18 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1800,250 +1800,250 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1628</v>
+        <v>1703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>4167</v>
+        <v>597</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>5795</v>
+        <v>2300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>20213</v>
+        <v>9768</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>22672</v>
+        <v>3460</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>42885</v>
+        <v>13228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
         <v>39</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>34398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="7">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7">
+        <v>17765</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="7">
+        <v>64</v>
+      </c>
+      <c r="N19" s="7">
+        <v>52164</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7">
+        <v>54637</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="7">
         <v>47</v>
       </c>
-      <c r="C20" s="7">
-        <v>41</v>
-      </c>
-      <c r="D20" s="7">
-        <v>33319</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="7">
-        <v>39</v>
-      </c>
       <c r="I20" s="7">
-        <v>29645</v>
+        <v>35079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="N20" s="7">
-        <v>62964</v>
+        <v>89717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,54 +2052,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>55160</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M21" s="7">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="N21" s="7">
-        <v>111644</v>
+        <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2108,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>636</v>
+        <v>388</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2126,34 +2126,34 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>636</v>
+        <v>388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2192,166 +2192,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>479</v>
+        <v>1243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>1074</v>
+        <v>1243</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>16522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="7">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11985</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>28507</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
-        <v>1093</v>
+        <v>46941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I26" s="7">
-        <v>1114</v>
+        <v>42281</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="N26" s="7">
-        <v>2208</v>
+        <v>89222</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,54 +2360,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2419,49 +2419,49 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1243</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>1243</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2470,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2485,157 +2485,157 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>16522</v>
+        <v>1628</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4167</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>9</v>
+      </c>
+      <c r="N30" s="7">
+        <v>5795</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="7">
-        <v>16</v>
-      </c>
-      <c r="I30" s="7">
-        <v>11985</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M30" s="7">
-        <v>31</v>
-      </c>
-      <c r="N30" s="7">
-        <v>28507</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D31" s="7">
-        <v>388</v>
+        <v>20213</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="7">
+        <v>29</v>
+      </c>
+      <c r="I31" s="7">
+        <v>22672</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="N31" s="7">
-        <v>388</v>
+        <v>42885</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>161</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7">
-        <v>46941</v>
+        <v>33319</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>165</v>
       </c>
       <c r="H32" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I32" s="7">
-        <v>42281</v>
+        <v>29645</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>166</v>
@@ -2647,10 +2647,10 @@
         <v>168</v>
       </c>
       <c r="M32" s="7">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N32" s="7">
-        <v>89222</v>
+        <v>62964</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>169</v>
@@ -2668,49 +2668,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>55160</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>111644</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,10 +2721,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>14261</v>
+        <v>2992</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>172</v>
@@ -2736,40 +2736,40 @@
         <v>174</v>
       </c>
       <c r="H34" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>10573</v>
+        <v>1255</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4248</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M34" s="7">
-        <v>31</v>
-      </c>
-      <c r="N34" s="7">
-        <v>24834</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -2778,13 +2778,13 @@
         <v>3040</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2793,13 +2793,13 @@
         <v>159</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -2808,106 +2808,106 @@
         <v>3199</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>84302</v>
+        <v>14261</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>16</v>
+      </c>
+      <c r="I36" s="7">
+        <v>10573</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="7">
-        <v>92</v>
-      </c>
-      <c r="I36" s="7">
-        <v>65279</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>31</v>
+      </c>
+      <c r="N36" s="7">
+        <v>24834</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M36" s="7">
-        <v>192</v>
-      </c>
-      <c r="N36" s="7">
-        <v>149581</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D37" s="7">
-        <v>2992</v>
+        <v>84302</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>92</v>
+      </c>
+      <c r="I37" s="7">
+        <v>65279</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1255</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="M37" s="7">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="N37" s="7">
-        <v>4248</v>
+        <v>149581</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>200</v>
@@ -2922,7 +2922,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>184</v>
@@ -2982,13 +2982,13 @@
         <v>265998</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -2997,13 +2997,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -3012,13 +3012,13 @@
         <v>468544</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C11DB96-0201-4C7D-B849-D4E669BFFA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9E5D88-D41D-4A83-816B-0FFDAA6D84AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9677FD4E-0F0E-44F8-93CB-70BF8D1E9B97}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D536883E-5C23-4E41-AA7F-61C7A6E4F8F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="216">
   <si>
     <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -68,208 +68,310 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,63%</t>
+    <t>9,74%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>11,67%</t>
+    <t>11,35%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>8,13%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>5,65%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>1,44%</t>
@@ -278,204 +380,180 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
     <t>2,74%</t>
   </si>
   <si>
@@ -485,82 +563,112 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -569,109 +677,13 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -682,7 +694,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -778,39 +790,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -862,7 +874,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -973,13 +985,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -988,6 +993,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1052,19 +1064,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F66A60-B4A7-499A-B985-282D55197B05}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E3DE71-EFDE-46C2-834D-A90604B303F4}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1181,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1093</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1196,49 +1228,49 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -1247,40 +1279,40 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1289,13 +1321,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1304,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1319,115 +1351,115 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1093</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2208</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,106 +1521,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>902</v>
+        <v>25413</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>659</v>
+        <v>17159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>1560</v>
+        <v>42572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>849</v>
+        <v>12573</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>12377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N11" s="7">
-        <v>849</v>
+        <v>24951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -1597,13 +1629,13 @@
         <v>2228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1612,13 +1644,13 @@
         <v>1703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1627,112 +1659,112 @@
         <v>3932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>12573</v>
+        <v>849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>12377</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>24951</v>
+        <v>849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>25413</v>
+        <v>902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>17159</v>
+        <v>659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>42572</v>
+        <v>1560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>72</v>
@@ -1797,106 +1829,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>1703</v>
+        <v>54637</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>597</v>
+        <v>35079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="N16" s="7">
-        <v>2300</v>
+        <v>89717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>2192</v>
+        <v>34398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>159</v>
+        <v>17765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="N17" s="7">
-        <v>2350</v>
+        <v>52164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1905,13 +1937,13 @@
         <v>9768</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1920,13 +1952,13 @@
         <v>3460</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -1935,106 +1967,106 @@
         <v>13228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>34398</v>
+        <v>2192</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>17765</v>
+        <v>159</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>52164</v>
+        <v>2350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>54637</v>
+        <v>1703</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>35079</v>
+        <v>597</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>89717</v>
+        <v>2300</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>112</v>
@@ -2105,106 +2137,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>388</v>
+        <v>46941</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>42281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="N22" s="7">
-        <v>388</v>
+        <v>89222</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7">
+        <v>16522</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="7">
         <v>16</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>11985</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>28507</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2213,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2228,13 +2260,13 @@
         <v>1243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2243,112 +2275,112 @@
         <v>1243</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>16522</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>11985</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>28507</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>46941</v>
+        <v>388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>42281</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="M26" s="7">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>89222</v>
+        <v>388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>144</v>
@@ -2413,106 +2445,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>33319</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>29645</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>62964</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>20213</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>22672</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>42885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2521,13 +2553,13 @@
         <v>1628</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2536,13 +2568,13 @@
         <v>4167</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2551,115 +2583,115 @@
         <v>5795</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="7">
-        <v>20213</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>22672</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>42885</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>33319</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H32" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>29645</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>62964</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,106 +2753,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="D34" s="7">
-        <v>2992</v>
+        <v>161402</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="I34" s="7">
-        <v>1255</v>
+        <v>125280</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="N34" s="7">
-        <v>4248</v>
+        <v>286683</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D35" s="7">
-        <v>3040</v>
+        <v>84302</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="I35" s="7">
-        <v>159</v>
+        <v>65279</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="N35" s="7">
-        <v>3199</v>
+        <v>149581</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -2829,13 +2861,13 @@
         <v>14261</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -2844,13 +2876,13 @@
         <v>10573</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -2859,115 +2891,115 @@
         <v>24834</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>84302</v>
+        <v>3040</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H37" s="7">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>65279</v>
+        <v>159</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="N37" s="7">
-        <v>149581</v>
+        <v>3199</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C38" s="7">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>161402</v>
+        <v>2992</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>125280</v>
+        <v>1255</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="M38" s="7">
-        <v>343</v>
+        <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>286683</v>
+        <v>4248</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,6 +3051,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9E5D88-D41D-4A83-816B-0FFDAA6D84AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E4FCF7-43E7-4A05-9801-7316589316B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D536883E-5C23-4E41-AA7F-61C7A6E4F8F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DDD6AF0-A650-4FC4-A880-8708BCACC28C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="214">
   <si>
     <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -86,10 +86,10 @@
     <t>56,36%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -98,13 +98,16 @@
     <t>25,59%</t>
   </si>
   <si>
+    <t>77,63%</t>
+  </si>
+  <si>
     <t>30,05%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>72,0%</t>
+    <t>71,27%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -113,7 +116,7 @@
     <t>27,37%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>84,26%</t>
   </si>
   <si>
     <t>0%</t>
@@ -125,7 +128,7 @@
     <t>16,24%</t>
   </si>
   <si>
-    <t>61,02%</t>
+    <t>61,82%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -143,544 +146,535 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>60,56%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>57,64%</t>
   </si>
   <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>38,8%</t>
   </si>
   <si>
-    <t>24,07%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
   </si>
   <si>
     <t>54,41%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>66,66%</t>
   </si>
   <si>
     <t>61,85%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>32,23%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
     <t>0,62%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1095,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E3DE71-EFDE-46C2-834D-A90604B303F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAB22E8-4441-485D-A0FE-332CAFA2A6EE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1276,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1285,7 +1279,7 @@
         <v>479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -1300,19 +1294,19 @@
         <v>1074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1321,13 +1315,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1339,10 +1333,10 @@
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1351,19 +1345,19 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1375,10 +1369,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1390,76 +1384,76 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,13 +1468,13 @@
         <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1489,13 +1483,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -1504,18 +1498,18 @@
         <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1527,13 +1521,13 @@
         <v>25413</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -1542,13 +1536,13 @@
         <v>17159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -1557,13 +1551,13 @@
         <v>42572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1572,13 @@
         <v>12573</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1593,13 +1587,13 @@
         <v>12377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -1608,19 +1602,19 @@
         <v>24951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -1629,13 +1623,13 @@
         <v>2228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1644,13 +1638,13 @@
         <v>1703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1659,19 +1653,19 @@
         <v>3932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1680,13 +1674,13 @@
         <v>849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1698,10 +1692,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1710,19 +1704,19 @@
         <v>849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1731,13 +1725,13 @@
         <v>902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1746,13 +1740,13 @@
         <v>659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1761,13 +1755,13 @@
         <v>1560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1776,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1797,13 +1791,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1812,18 +1806,18 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1835,13 +1829,13 @@
         <v>54637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -1850,13 +1844,13 @@
         <v>35079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -1865,13 +1859,13 @@
         <v>89717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1880,13 @@
         <v>34398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1901,13 +1895,13 @@
         <v>17765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -1916,19 +1910,19 @@
         <v>52164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1937,13 +1931,13 @@
         <v>9768</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1952,13 +1946,13 @@
         <v>3460</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -1979,7 +1973,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -2030,7 +2024,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2045,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2054,13 +2048,13 @@
         <v>597</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2069,13 +2063,13 @@
         <v>2300</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2084,13 @@
         <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2105,13 +2099,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -2120,18 +2114,18 @@
         <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2143,13 +2137,13 @@
         <v>46941</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -2158,13 +2152,13 @@
         <v>42281</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -2173,13 +2167,13 @@
         <v>89222</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2188,13 @@
         <v>16522</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -2209,13 +2203,13 @@
         <v>11985</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -2224,19 +2218,19 @@
         <v>28507</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2248,10 +2242,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2260,13 +2254,13 @@
         <v>1243</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2275,19 +2269,19 @@
         <v>1243</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2299,10 +2293,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2314,31 +2308,31 @@
         <v>12</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2347,14 +2341,14 @@
         <v>388</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
@@ -2365,10 +2359,10 @@
         <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2377,13 +2371,13 @@
         <v>388</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2392,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2413,13 +2407,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2428,18 +2422,18 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2445,13 @@
         <v>33319</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -2466,13 +2460,13 @@
         <v>29645</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
@@ -2481,13 +2475,13 @@
         <v>62964</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2496,13 @@
         <v>20213</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2517,13 +2511,13 @@
         <v>22672</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2532,19 +2526,19 @@
         <v>42885</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2553,13 +2547,13 @@
         <v>1628</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2568,13 +2562,13 @@
         <v>4167</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2583,19 +2577,19 @@
         <v>5795</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2607,46 +2601,46 @@
         <v>12</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2658,40 +2652,40 @@
         <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2700,13 @@
         <v>55160</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2721,13 +2715,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M33" s="7">
         <v>144</v>
@@ -2736,13 +2730,13 @@
         <v>111644</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2753,13 @@
         <v>161402</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>159</v>
@@ -2774,13 +2768,13 @@
         <v>125280</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>343</v>
@@ -2789,13 +2783,13 @@
         <v>286683</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2804,13 @@
         <v>84302</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H35" s="7">
         <v>92</v>
@@ -2825,13 +2819,13 @@
         <v>65279</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M35" s="7">
         <v>192</v>
@@ -2840,19 +2834,19 @@
         <v>149581</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -2861,13 +2855,13 @@
         <v>14261</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -2876,13 +2870,13 @@
         <v>10573</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -2891,19 +2885,19 @@
         <v>24834</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
@@ -2912,13 +2906,13 @@
         <v>3040</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -2927,13 +2921,13 @@
         <v>159</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2942,19 +2936,19 @@
         <v>3199</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -2963,13 +2957,13 @@
         <v>2992</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2978,13 +2972,13 @@
         <v>1255</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -2993,13 +2987,13 @@
         <v>4248</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3008,13 @@
         <v>265998</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3029,13 +3023,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -3044,18 +3038,18 @@
         <v>468544</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E4FCF7-43E7-4A05-9801-7316589316B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCA1558-BE8F-446C-AE99-690E2BF87106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DDD6AF0-A650-4FC4-A880-8708BCACC28C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6C3352D-0C64-4415-9BFA-57EF7F6F30EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="214">
-  <si>
-    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
+  <si>
+    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,616 +65,574 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,03%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1089,8 +1047,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAB22E8-4441-485D-A0FE-332CAFA2A6EE}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EFA15A-0434-426A-8061-30ED513ED636}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1207,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>1093</v>
+        <v>15821</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1222,193 +1180,193 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>1114</v>
+        <v>27885</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>2208</v>
+        <v>43706</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>595</v>
+        <v>13705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>479</v>
+        <v>17781</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>1074</v>
+        <v>31486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1064</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>636</v>
+        <v>1681</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1417,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1432,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1447,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,306 +1420,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>25413</v>
+        <v>32340</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>17159</v>
+        <v>51010</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>42572</v>
+        <v>83350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>12573</v>
+        <v>17503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>12377</v>
+        <v>37672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="N11" s="7">
-        <v>24951</v>
+        <v>55175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>2228</v>
+        <v>3201</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>1703</v>
+        <v>7067</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>3932</v>
+        <v>10268</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>7027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>849</v>
+        <v>7027</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>902</v>
+        <v>590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
-        <v>659</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
       <c r="N14" s="7">
-        <v>1560</v>
+        <v>590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,306 +1728,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>54637</v>
+        <v>54880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>35079</v>
+        <v>40925</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N16" s="7">
-        <v>89717</v>
+        <v>95804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>34398</v>
+        <v>15300</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>17765</v>
+        <v>23232</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N17" s="7">
-        <v>52164</v>
+        <v>38532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>9768</v>
+        <v>1222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>3460</v>
+        <v>821</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>13228</v>
+        <v>2043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2192</v>
+        <v>788</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>159</v>
+        <v>868</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>2350</v>
+        <v>1656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1703</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,225 +2036,225 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>65846</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="N21" s="7">
-        <v>159759</v>
+        <v>138036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>46941</v>
+        <v>22850</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>42281</v>
+        <v>27879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N22" s="7">
-        <v>89222</v>
+        <v>50729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
-        <v>16522</v>
+        <v>24236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>11985</v>
+        <v>23058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N23" s="7">
-        <v>28507</v>
+        <v>47295</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>4977</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>1243</v>
+        <v>5434</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>1243</v>
+        <v>10411</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2305,49 +2263,49 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2356,28 +2314,28 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,276 +2344,276 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="D28" s="7">
-        <v>33319</v>
+        <v>125890</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="I28" s="7">
-        <v>29645</v>
+        <v>147699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="N28" s="7">
-        <v>62964</v>
+        <v>273589</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7">
-        <v>20213</v>
+        <v>70744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="I29" s="7">
-        <v>22672</v>
+        <v>101744</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="N29" s="7">
-        <v>42885</v>
+        <v>172488</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>1628</v>
+        <v>10017</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>4167</v>
+        <v>14386</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N30" s="7">
-        <v>5795</v>
+        <v>24403</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>3238</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>9186</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>12424</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2664,28 +2622,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,370 +2652,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>69</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>55160</v>
+        <v>210479</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>273016</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>144</v>
+        <v>578</v>
       </c>
       <c r="N33" s="7">
-        <v>111644</v>
+        <v>483494</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>184</v>
-      </c>
-      <c r="D34" s="7">
-        <v>161402</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="7">
-        <v>159</v>
-      </c>
-      <c r="I34" s="7">
-        <v>125280</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M34" s="7">
-        <v>343</v>
-      </c>
-      <c r="N34" s="7">
-        <v>286683</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>100</v>
-      </c>
-      <c r="D35" s="7">
-        <v>84302</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" s="7">
-        <v>92</v>
-      </c>
-      <c r="I35" s="7">
-        <v>65279</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M35" s="7">
-        <v>192</v>
-      </c>
-      <c r="N35" s="7">
-        <v>149581</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7">
-        <v>14261</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" s="7">
-        <v>16</v>
-      </c>
-      <c r="I36" s="7">
-        <v>10573</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" s="7">
-        <v>31</v>
-      </c>
-      <c r="N36" s="7">
-        <v>24834</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q36" s="7" t="s">
+      <c r="A34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7">
-        <v>3040</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>159</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3199</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2992</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1255</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M38" s="7">
-        <v>6</v>
-      </c>
-      <c r="N38" s="7">
-        <v>4248</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>306</v>
-      </c>
-      <c r="D39" s="7">
-        <v>265998</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="7">
-        <v>576</v>
-      </c>
-      <c r="N39" s="7">
-        <v>468544</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>213</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
